--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>File Name</t>
   </si>
@@ -22,6 +22,12 @@
     <t>zh-cn</t>
   </si>
   <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
     <t>test-scenario-1.md</t>
   </si>
   <si>
@@ -31,9 +37,6 @@
     <t>osmond-test-1.md</t>
   </si>
   <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -61,6 +64,18 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-01 07:05:43</t>
+  </si>
+  <si>
+    <t>2016-02-22 08:37:26</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
   </si>
   <si>
@@ -73,22 +88,10 @@
     <t>2015-11-06 07:36:12</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf</t>
   </si>
   <si>
     <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-01 07:05:43</t>
-  </si>
-  <si>
-    <t>2016-02-01 08:16:58</t>
   </si>
 </sst>
 </file>
@@ -223,22 +226,22 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-scenario-1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="Ping.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="Ping.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="osmond-test-1.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -268,31 +271,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -303,16 +306,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>18</v>
@@ -326,22 +329,22 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>19</v>
@@ -349,25 +352,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>19</v>
@@ -375,18 +378,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-scenario-1.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="test-scenario-1.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="osmond-test-1.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="Ping.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="Ping.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A2" display="Ping.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="Ping.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="test-scenario-1.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="osmond-test-1.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="osmond-test-1.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -416,31 +419,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -70,7 +70,7 @@
     <t>2016-02-01 07:05:43</t>
   </si>
   <si>
-    <t>2016-02-22 08:37:26</t>
+    <t>2016-02-22 08:47:41</t>
   </si>
   <si>
     <t>Include</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -70,7 +70,7 @@
     <t>2016-02-01 07:05:43</t>
   </si>
   <si>
-    <t>2016-02-22 08:47:41</t>
+    <t>2016-02-22 08:57:49</t>
   </si>
   <si>
     <t>Include</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>File Name</t>
   </si>
@@ -22,21 +22,18 @@
     <t>zh-cn</t>
   </si>
   <si>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>osmond-test-1.md</t>
+  </si>
+  <si>
     <t>Ping.md</t>
   </si>
   <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>osmond-test-1.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -64,34 +61,34 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2015-11-06 07:23:55</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2015-11-06 07:36:12</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
+  </si>
+  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-01 07:05:43</t>
-  </si>
-  <si>
-    <t>2016-02-22 08:57:49</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2015-11-06 07:23:55</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2015-11-06 07:36:12</t>
-  </si>
-  <si>
-    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
+    <t>2016-02-22 14:49:33</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:58:54</t>
   </si>
 </sst>
 </file>
@@ -226,22 +223,22 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="Ping.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="osmond-test-1.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="test-scenario-1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="Ping.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -271,31 +268,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -306,16 +303,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>18</v>
@@ -329,22 +326,22 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>19</v>
@@ -352,25 +349,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>19</v>
@@ -378,18 +375,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="Ping.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="Ping.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="osmond-test-1.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="osmond-test-1.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A2" display="test-scenario-1.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="test-scenario-1.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="osmond-test-1.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="Ping.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="Ping.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -419,31 +416,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>File Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Ping.md</t>
   </si>
   <si>
+    <t>test2.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -89,6 +92,15 @@
   </si>
   <si>
     <t>2016-02-22 14:58:54</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 05:04:54</t>
+  </si>
+  <si>
+    <t>2016-02-23 05:34:31</t>
   </si>
 </sst>
 </file>
@@ -192,7 +204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -234,11 +246,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="test-scenario-1.md" r:id="rId2"/>
     <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId3"/>
     <hyperlink ref="A4" display="Ping.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="test2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -249,7 +270,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -268,31 +289,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -303,22 +324,22 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -329,22 +350,22 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -355,22 +376,48 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -387,6 +434,10 @@
     <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId11"/>
     <hyperlink ref="E4" display="Ping.md" r:id="rId12"/>
     <hyperlink ref="F4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="test2.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="test2.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -416,31 +467,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -6,15 +6,16 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
-    <sheet name="de-de" sheetId="3" r:id="rId4"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="zh-cn" sheetId="3" r:id="rId4"/>
+    <sheet name="ja-jp" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -22,6 +23,15 @@
     <t>zh-cn</t>
   </si>
   <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>test1.md</t>
+  </si>
+  <si>
     <t>test-scenario-1.md</t>
   </si>
   <si>
@@ -31,12 +41,12 @@
     <t>osmond-test-1.md</t>
   </si>
   <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
     <t>test2.md</t>
   </si>
   <si>
+    <t>TOC.yml</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -64,6 +74,27 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:49:33</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:58:54</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 05:04:54</t>
+  </si>
+  <si>
+    <t>2016-02-23 12:15:10</t>
+  </si>
+  <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
   </si>
   <si>
@@ -76,31 +107,28 @@
     <t>2015-11-06 07:36:12</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf</t>
   </si>
   <si>
     <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
   </si>
   <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:49:33</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:58:54</t>
-  </si>
-  <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 05:04:54</t>
+    <t>2016-02-24 05:24:47</t>
   </si>
   <si>
     <t>2016-02-23 05:34:31</t>
+  </si>
+  <si>
+    <t>b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml</t>
+  </si>
+  <si>
+    <t>2016-03-01 06:46:49</t>
+  </si>
+  <si>
+    <t>2016-03-01 06:56:39</t>
   </si>
 </sst>
 </file>
@@ -157,7 +185,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:J1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="Status"/>
@@ -175,7 +203,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:J1" headerRowCount="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="Status"/>
@@ -193,7 +221,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ja-jp" displayName="ja_jp" ref="A1:J1" headerRowCount="0">
+  <tableColumns count="10">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="Correspond Handoff File"/>
+    <tableColumn id="4" name="Correspond Handoff Datetime"/>
+    <tableColumn id="5" name="Target File"/>
+    <tableColumn id="6" name="Correspond Handback File"/>
+    <tableColumn id="7" name="Correspond Handback DateTime"/>
+    <tableColumn id="8" name="Handoff Reason"/>
+    <tableColumn id="9" name="Dependency From"/>
+    <tableColumn id="10" name="Column10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
   <tableColumns count="2">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="zh-cn"/>
@@ -204,7 +250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -243,23 +289,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-scenario-1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="Ping.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="test2.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="Ping.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="test1.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="osmond-test-1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="test2.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="TOC.yml" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -269,184 +333,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" display="test-scenario-1.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="test-scenario-1.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="osmond-test-1.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="Ping.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="Ping.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="test2.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="test2.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId17"/>
-  </hyperlinks>
-  <headerFooter/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -467,31 +353,325 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="Ping.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="Ping.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="test1.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="test1.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="test-scenario-1.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="osmond-test-1.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="osmond-test-1.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="test2.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="test2.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="TOC.yml" r:id="rId22"/>
+    <hyperlink ref="C7" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId23"/>
+    <hyperlink ref="E7" display="TOC.yml" r:id="rId24"/>
+    <hyperlink ref="F7" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId25"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -30,6 +30,9 @@
     <t>1111111111111111.md</t>
   </si>
   <si>
+    <t>aaaaalllllladnasfhaskdf.md</t>
+  </si>
+  <si>
     <t>empty.yml</t>
   </si>
   <si>
@@ -39,27 +42,33 @@
     <t>github.png</t>
   </si>
   <si>
-    <t>Ping.md</t>
+    <t>sync.md</t>
+  </si>
+  <si>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>test.yml</t>
+  </si>
+  <si>
+    <t>test1-aaa.md</t>
+  </si>
+  <si>
+    <t>test1.md</t>
+  </si>
+  <si>
+    <t>testimage.md</t>
+  </si>
+  <si>
+    <t>TOC.yml</t>
+  </si>
+  <si>
+    <t>workerroletest.md</t>
   </si>
   <si>
     <t>Pong.md</t>
   </si>
   <si>
-    <t>sync.md</t>
-  </si>
-  <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>test.yml</t>
-  </si>
-  <si>
-    <t>test1-aaa.md</t>
-  </si>
-  <si>
-    <t>test1.md</t>
-  </si>
-  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
   </si>
   <si>
@@ -75,15 +84,6 @@
     <t>testworkerrole.md</t>
   </si>
   <si>
-    <t>testimage.md</t>
-  </si>
-  <si>
-    <t>TOC.yml</t>
-  </si>
-  <si>
-    <t>workerroletest.md</t>
-  </si>
-  <si>
     <t>README.md</t>
   </si>
   <si>
@@ -96,12 +96,6 @@
     <t>TOC1.yml</t>
   </si>
   <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -156,6 +150,9 @@
     <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
   </si>
   <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
+  </si>
+  <si>
     <t>.yml</t>
   </si>
   <si>
@@ -174,31 +171,44 @@
     <t>IsDependency</t>
   </si>
   <si>
-    <t>e2e\testimage.md</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
+    <t>e2e\testimage.md,
+e2e\move\testimage.md</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-14 03:27:11</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf</t>
   </si>
   <si>
     <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf</t>
   </si>
   <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-14 03:27:11</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
+    <t>2016-04-15 06:08:32</t>
+  </si>
+  <si>
+    <t>2016-04-15 06:37:51</t>
   </si>
   <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf</t>
@@ -216,31 +226,22 @@
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf</t>
   </si>
   <si>
-    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf</t>
-  </si>
-  <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf</t>
   </si>
   <si>
+    <t>2016-04-14 10:49:22</t>
+  </si>
+  <si>
     <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf</t>
   </si>
   <si>
     <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf</t>
   </si>
   <si>
+    <t>2016-04-14 08:29:38</t>
+  </si>
+  <si>
     <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -297,8 +298,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pl-pl" displayName="pl_pl" ref="A1:L26" headerRowCount="1">
-  <autoFilter ref="A1:L26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pl-pl" displayName="pl_pl" ref="A1:L25" headerRowCount="1">
+  <autoFilter ref="A1:L25"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -318,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B26" headerRowCount="1">
-  <autoFilter ref="A1:B26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B25" headerRowCount="1">
+  <autoFilter ref="A1:B25"/>
   <tableColumns count="2">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="pl-pl"/>
@@ -330,7 +331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -540,41 +541,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
     <hyperlink ref="A3" display="1111111111111111.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="empty.yml" r:id="rId4"/>
-    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="github.png" r:id="rId6"/>
-    <hyperlink ref="A7" display="Ping.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="Pong.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="test.yml" r:id="rId11"/>
-    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="test2.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="testworkerrole.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="testimage.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="TOC.yml" r:id="rId20"/>
-    <hyperlink ref="A21" display="workerroletest.md" r:id="rId21"/>
+    <hyperlink ref="A4" display="aaaaalllllladnasfhaskdf.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="empty.yml" r:id="rId5"/>
+    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="github.png" r:id="rId7"/>
+    <hyperlink ref="A8" display="sync.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="test-scenario-1.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="test.yml" r:id="rId10"/>
+    <hyperlink ref="A11" display="test1-aaa.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="testimage.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="TOC.yml" r:id="rId14"/>
+    <hyperlink ref="A15" display="workerroletest.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="Pong.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="test2.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="testworkerrole.md" r:id="rId21"/>
     <hyperlink ref="A22" display="README.md" r:id="rId22"/>
     <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId23"/>
     <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId24"/>
     <hyperlink ref="A25" display="TOC1.yml" r:id="rId25"/>
-    <hyperlink ref="A26" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId26"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -585,7 +577,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -607,40 +599,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -648,28 +640,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -677,28 +669,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -706,28 +698,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -735,28 +727,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -764,31 +756,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -796,28 +785,31 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -825,28 +817,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -854,28 +846,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -883,28 +875,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -912,28 +904,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -941,28 +933,28 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -970,28 +962,28 @@
         <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -999,28 +991,28 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
@@ -1028,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1057,28 +1049,28 @@
         <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J16" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -1086,7 +1078,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>3</v>
@@ -1095,7 +1087,7 @@
         <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>18</v>
@@ -1104,10 +1096,10 @@
         <v>65</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1115,7 +1107,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>3</v>
@@ -1124,7 +1116,7 @@
         <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>19</v>
@@ -1133,10 +1125,10 @@
         <v>66</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -1144,7 +1136,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>3</v>
@@ -1153,7 +1145,7 @@
         <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>20</v>
@@ -1162,10 +1154,10 @@
         <v>67</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -1173,7 +1165,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>3</v>
@@ -1182,7 +1174,7 @@
         <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>21</v>
@@ -1191,10 +1183,10 @@
         <v>68</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
@@ -1202,7 +1194,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>3</v>
@@ -1211,7 +1203,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>22</v>
@@ -1220,10 +1212,10 @@
         <v>69</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1223,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>3</v>
@@ -1240,7 +1232,7 @@
         <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>23</v>
@@ -1249,10 +1241,10 @@
         <v>70</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1252,28 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -1289,28 +1281,28 @@
         <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
@@ -1318,51 +1310,28 @@
         <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1375,78 +1344,78 @@
     <hyperlink ref="D3" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId7"/>
     <hyperlink ref="F3" display="1111111111111111.md" r:id="rId8"/>
     <hyperlink ref="G3" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="empty.yml" r:id="rId10"/>
-    <hyperlink ref="D4" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId11"/>
-    <hyperlink ref="F4" display="empty.yml" r:id="rId12"/>
-    <hyperlink ref="G4" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId15"/>
-    <hyperlink ref="F5" display="generate-warning and error.md" r:id="rId16"/>
-    <hyperlink ref="G5" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="github.png" r:id="rId18"/>
-    <hyperlink ref="D6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId19"/>
-    <hyperlink ref="F6" display="github.png" r:id="rId20"/>
-    <hyperlink ref="G6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId21"/>
-    <hyperlink ref="A7" display="Ping.md" r:id="rId22"/>
-    <hyperlink ref="D7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId23"/>
-    <hyperlink ref="F7" display="Ping.md" r:id="rId24"/>
-    <hyperlink ref="G7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="Pong.md" r:id="rId26"/>
-    <hyperlink ref="D8" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId27"/>
-    <hyperlink ref="F8" display="Pong.md" r:id="rId28"/>
-    <hyperlink ref="G8" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId29"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId30"/>
-    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId31"/>
-    <hyperlink ref="F9" display="sync.md" r:id="rId32"/>
-    <hyperlink ref="G9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId34"/>
-    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId35"/>
-    <hyperlink ref="F10" display="test-scenario-1.md" r:id="rId36"/>
-    <hyperlink ref="G10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="test.yml" r:id="rId38"/>
-    <hyperlink ref="D11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId39"/>
-    <hyperlink ref="F11" display="test.yml" r:id="rId40"/>
-    <hyperlink ref="G11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId42"/>
-    <hyperlink ref="D12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId43"/>
-    <hyperlink ref="F12" display="test1-aaa.md" r:id="rId44"/>
-    <hyperlink ref="G12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId46"/>
-    <hyperlink ref="D13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId47"/>
-    <hyperlink ref="F13" display="test1.md" r:id="rId48"/>
-    <hyperlink ref="G13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId50"/>
-    <hyperlink ref="D14" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId51"/>
-    <hyperlink ref="F14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId52"/>
-    <hyperlink ref="G14" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId53"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId54"/>
-    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId55"/>
-    <hyperlink ref="F15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId56"/>
-    <hyperlink ref="G15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId57"/>
-    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId58"/>
-    <hyperlink ref="D16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId59"/>
-    <hyperlink ref="F16" display="keep-the-ui-thread-responsive.md" r:id="rId60"/>
-    <hyperlink ref="G16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId61"/>
-    <hyperlink ref="A17" display="test2.md" r:id="rId62"/>
-    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId63"/>
-    <hyperlink ref="F17" display="test2.md" r:id="rId64"/>
-    <hyperlink ref="G17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId65"/>
-    <hyperlink ref="A18" display="testworkerrole.md" r:id="rId66"/>
-    <hyperlink ref="D18" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId67"/>
-    <hyperlink ref="F18" display="testworkerrole.md" r:id="rId68"/>
-    <hyperlink ref="G18" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId69"/>
-    <hyperlink ref="A19" display="testimage.md" r:id="rId70"/>
-    <hyperlink ref="D19" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId71"/>
-    <hyperlink ref="F19" display="testimage.md" r:id="rId72"/>
-    <hyperlink ref="G19" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId73"/>
-    <hyperlink ref="A20" display="TOC.yml" r:id="rId74"/>
-    <hyperlink ref="D20" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId75"/>
-    <hyperlink ref="F20" display="TOC.yml" r:id="rId76"/>
-    <hyperlink ref="G20" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId77"/>
-    <hyperlink ref="A21" display="workerroletest.md" r:id="rId78"/>
-    <hyperlink ref="D21" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId79"/>
-    <hyperlink ref="F21" display="workerroletest.md" r:id="rId80"/>
-    <hyperlink ref="G21" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId81"/>
+    <hyperlink ref="A4" display="aaaaalllllladnasfhaskdf.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="aaaaalllllladnasfhaskdf.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="empty.yml" r:id="rId14"/>
+    <hyperlink ref="D5" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="empty.yml" r:id="rId16"/>
+    <hyperlink ref="G5" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId18"/>
+    <hyperlink ref="D6" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId19"/>
+    <hyperlink ref="F6" display="generate-warning and error.md" r:id="rId20"/>
+    <hyperlink ref="G6" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="github.png" r:id="rId22"/>
+    <hyperlink ref="D7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId23"/>
+    <hyperlink ref="F7" display="github.png" r:id="rId24"/>
+    <hyperlink ref="G7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId25"/>
+    <hyperlink ref="A8" display="sync.md" r:id="rId26"/>
+    <hyperlink ref="D8" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId27"/>
+    <hyperlink ref="F8" display="sync.md" r:id="rId28"/>
+    <hyperlink ref="G8" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="test-scenario-1.md" r:id="rId30"/>
+    <hyperlink ref="D9" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId31"/>
+    <hyperlink ref="F9" display="test-scenario-1.md" r:id="rId32"/>
+    <hyperlink ref="G9" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="test.yml" r:id="rId34"/>
+    <hyperlink ref="D10" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId35"/>
+    <hyperlink ref="F10" display="test.yml" r:id="rId36"/>
+    <hyperlink ref="G10" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="test1-aaa.md" r:id="rId38"/>
+    <hyperlink ref="D11" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId39"/>
+    <hyperlink ref="F11" display="test1-aaa.md" r:id="rId40"/>
+    <hyperlink ref="G11" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId41"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId42"/>
+    <hyperlink ref="D12" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId43"/>
+    <hyperlink ref="F12" display="test1.md" r:id="rId44"/>
+    <hyperlink ref="G12" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="testimage.md" r:id="rId46"/>
+    <hyperlink ref="D13" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId47"/>
+    <hyperlink ref="F13" display="testimage.md" r:id="rId48"/>
+    <hyperlink ref="G13" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="TOC.yml" r:id="rId50"/>
+    <hyperlink ref="D14" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId51"/>
+    <hyperlink ref="F14" display="TOC.yml" r:id="rId52"/>
+    <hyperlink ref="G14" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="workerroletest.md" r:id="rId54"/>
+    <hyperlink ref="D15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId55"/>
+    <hyperlink ref="F15" display="workerroletest.md" r:id="rId56"/>
+    <hyperlink ref="G15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId57"/>
+    <hyperlink ref="A16" display="Pong.md" r:id="rId58"/>
+    <hyperlink ref="D16" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId59"/>
+    <hyperlink ref="F16" display="Pong.md" r:id="rId60"/>
+    <hyperlink ref="G16" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId62"/>
+    <hyperlink ref="D17" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId63"/>
+    <hyperlink ref="F17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId64"/>
+    <hyperlink ref="G17" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId65"/>
+    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId66"/>
+    <hyperlink ref="D18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId67"/>
+    <hyperlink ref="F18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId68"/>
+    <hyperlink ref="G18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId69"/>
+    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId70"/>
+    <hyperlink ref="D19" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId71"/>
+    <hyperlink ref="F19" display="keep-the-ui-thread-responsive.md" r:id="rId72"/>
+    <hyperlink ref="G19" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId73"/>
+    <hyperlink ref="A20" display="test2.md" r:id="rId74"/>
+    <hyperlink ref="D20" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId75"/>
+    <hyperlink ref="F20" display="test2.md" r:id="rId76"/>
+    <hyperlink ref="G20" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId77"/>
+    <hyperlink ref="A21" display="testworkerrole.md" r:id="rId78"/>
+    <hyperlink ref="D21" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId79"/>
+    <hyperlink ref="F21" display="testworkerrole.md" r:id="rId80"/>
+    <hyperlink ref="G21" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId81"/>
     <hyperlink ref="A22" display="README.md" r:id="rId82"/>
     <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId83"/>
     <hyperlink ref="F22" display="README.md" r:id="rId84"/>
@@ -1463,8 +1432,6 @@
     <hyperlink ref="D25" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId95"/>
     <hyperlink ref="F25" display="TOC1.yml" r:id="rId96"/>
     <hyperlink ref="G25" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId97"/>
-    <hyperlink ref="A26" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId98"/>
-    <hyperlink ref="D26" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf" r:id="rId99"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>File Name</t>
   </si>
@@ -21,6 +21,12 @@
     <t>pl-pl</t>
   </si>
   <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
     <t>a1111.md</t>
   </si>
   <si>
@@ -69,6 +75,9 @@
     <t>Pong.md</t>
   </si>
   <si>
+    <t>test2.md</t>
+  </si>
+  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
   </si>
   <si>
@@ -78,13 +87,7 @@
     <t>keep-the-ui-thread-responsive.md</t>
   </si>
   <si>
-    <t>test2.md</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
-  </si>
-  <si>
-    <t>README.md</t>
+    <t>1111117777ss.md</t>
   </si>
   <si>
     <t>testfirstlevel.md</t>
@@ -135,6 +138,18 @@
     <t>.md</t>
   </si>
   <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-14 10:49:22</t>
+  </si>
+  <si>
+    <t>2016-04-15 06:37:51</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
   </si>
   <si>
@@ -142,9 +157,6 @@
   </si>
   <si>
     <t>2016-04-14 04:17:28</t>
-  </si>
-  <si>
-    <t>Include</t>
   </si>
   <si>
     <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
@@ -208,7 +220,13 @@
     <t>2016-04-15 06:08:32</t>
   </si>
   <si>
-    <t>2016-04-15 06:37:51</t>
+    <t>test1.479666c0bebd89a903b3c049a83aee18e187ea2e.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-15 15:45:24</t>
+  </si>
+  <si>
+    <t>2016-04-15 15:54:51</t>
   </si>
   <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf</t>
@@ -220,16 +238,10 @@
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf</t>
   </si>
   <si>
+    <t>1111117777ss.52737dbd6c620bebfe2cffe9f1dd7265e1de33f2.pl-pl.xlf</t>
+  </si>
+  <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-14 10:49:22</t>
   </si>
   <si>
     <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf</t>
@@ -298,8 +310,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pl-pl" displayName="pl_pl" ref="A1:L25" headerRowCount="1">
-  <autoFilter ref="A1:L25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pl-pl" displayName="pl_pl" ref="A1:L27" headerRowCount="1">
+  <autoFilter ref="A1:L27"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -319,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B25" headerRowCount="1">
-  <autoFilter ref="A1:B25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B27" headerRowCount="1">
+  <autoFilter ref="A1:B27"/>
   <tableColumns count="2">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="pl-pl"/>
@@ -331,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,127 +374,127 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -490,7 +502,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -498,7 +510,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -506,7 +518,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -514,7 +526,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -522,51 +534,69 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>3</v>
+      <c r="B26" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="1111111111111111.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="aaaaalllllladnasfhaskdf.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="empty.yml" r:id="rId5"/>
-    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="github.png" r:id="rId7"/>
-    <hyperlink ref="A8" display="sync.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="test-scenario-1.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="test.yml" r:id="rId10"/>
-    <hyperlink ref="A11" display="test1-aaa.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="test1.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="testimage.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="TOC.yml" r:id="rId14"/>
-    <hyperlink ref="A15" display="workerroletest.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="Pong.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="test2.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="testworkerrole.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="TOC1.yml" r:id="rId25"/>
+    <hyperlink ref="A2" display="README.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="a1111.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="1111111111111111.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="aaaaalllllladnasfhaskdf.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="empty.yml" r:id="rId6"/>
+    <hyperlink ref="A7" display="generate-warning and error.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="github.png" r:id="rId8"/>
+    <hyperlink ref="A9" display="sync.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="test.yml" r:id="rId11"/>
+    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="testimage.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="TOC.yml" r:id="rId15"/>
+    <hyperlink ref="A16" display="workerroletest.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="Pong.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="test1.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="test2.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="keep-the-ui-thread-responsive.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="1111117777ss.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="test2.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="testfirstlevel.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="TOC1.yml" r:id="rId27"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -577,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -599,40 +629,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -640,28 +670,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -669,466 +699,466 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1136,28 +1166,28 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -1165,28 +1195,28 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1194,28 +1224,28 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -1223,28 +1253,28 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -1252,186 +1282,252 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="B26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="0" t="s">
+      <c r="G26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="a1111.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="1111111111111111.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId7"/>
-    <hyperlink ref="F3" display="1111111111111111.md" r:id="rId8"/>
-    <hyperlink ref="G3" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="aaaaalllllladnasfhaskdf.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId11"/>
-    <hyperlink ref="F4" display="aaaaalllllladnasfhaskdf.md" r:id="rId12"/>
-    <hyperlink ref="G4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="empty.yml" r:id="rId14"/>
-    <hyperlink ref="D5" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId15"/>
-    <hyperlink ref="F5" display="empty.yml" r:id="rId16"/>
-    <hyperlink ref="G5" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId18"/>
-    <hyperlink ref="D6" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId19"/>
-    <hyperlink ref="F6" display="generate-warning and error.md" r:id="rId20"/>
-    <hyperlink ref="G6" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId21"/>
-    <hyperlink ref="A7" display="github.png" r:id="rId22"/>
-    <hyperlink ref="D7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId23"/>
-    <hyperlink ref="F7" display="github.png" r:id="rId24"/>
-    <hyperlink ref="G7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId25"/>
-    <hyperlink ref="A8" display="sync.md" r:id="rId26"/>
-    <hyperlink ref="D8" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId27"/>
-    <hyperlink ref="F8" display="sync.md" r:id="rId28"/>
-    <hyperlink ref="G8" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId29"/>
-    <hyperlink ref="A9" display="test-scenario-1.md" r:id="rId30"/>
-    <hyperlink ref="D9" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId31"/>
-    <hyperlink ref="F9" display="test-scenario-1.md" r:id="rId32"/>
-    <hyperlink ref="G9" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="test.yml" r:id="rId34"/>
-    <hyperlink ref="D10" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId35"/>
-    <hyperlink ref="F10" display="test.yml" r:id="rId36"/>
-    <hyperlink ref="G10" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="test1-aaa.md" r:id="rId38"/>
-    <hyperlink ref="D11" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId39"/>
-    <hyperlink ref="F11" display="test1-aaa.md" r:id="rId40"/>
-    <hyperlink ref="G11" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="test1.md" r:id="rId42"/>
-    <hyperlink ref="D12" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId43"/>
-    <hyperlink ref="F12" display="test1.md" r:id="rId44"/>
-    <hyperlink ref="G12" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="testimage.md" r:id="rId46"/>
-    <hyperlink ref="D13" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId47"/>
-    <hyperlink ref="F13" display="testimage.md" r:id="rId48"/>
-    <hyperlink ref="G13" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="TOC.yml" r:id="rId50"/>
-    <hyperlink ref="D14" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId51"/>
-    <hyperlink ref="F14" display="TOC.yml" r:id="rId52"/>
-    <hyperlink ref="G14" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId53"/>
-    <hyperlink ref="A15" display="workerroletest.md" r:id="rId54"/>
-    <hyperlink ref="D15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId55"/>
-    <hyperlink ref="F15" display="workerroletest.md" r:id="rId56"/>
-    <hyperlink ref="G15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId57"/>
-    <hyperlink ref="A16" display="Pong.md" r:id="rId58"/>
-    <hyperlink ref="D16" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId59"/>
-    <hyperlink ref="F16" display="Pong.md" r:id="rId60"/>
-    <hyperlink ref="G16" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId61"/>
-    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId62"/>
-    <hyperlink ref="D17" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId63"/>
-    <hyperlink ref="F17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId64"/>
-    <hyperlink ref="G17" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId65"/>
-    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId66"/>
-    <hyperlink ref="D18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId67"/>
-    <hyperlink ref="F18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId68"/>
-    <hyperlink ref="G18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId69"/>
-    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId70"/>
-    <hyperlink ref="D19" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId71"/>
-    <hyperlink ref="F19" display="keep-the-ui-thread-responsive.md" r:id="rId72"/>
-    <hyperlink ref="G19" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId73"/>
-    <hyperlink ref="A20" display="test2.md" r:id="rId74"/>
-    <hyperlink ref="D20" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId75"/>
-    <hyperlink ref="F20" display="test2.md" r:id="rId76"/>
-    <hyperlink ref="G20" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId77"/>
-    <hyperlink ref="A21" display="testworkerrole.md" r:id="rId78"/>
-    <hyperlink ref="D21" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId79"/>
-    <hyperlink ref="F21" display="testworkerrole.md" r:id="rId80"/>
-    <hyperlink ref="G21" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId81"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId82"/>
-    <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId83"/>
-    <hyperlink ref="F22" display="README.md" r:id="rId84"/>
-    <hyperlink ref="G22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId85"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId86"/>
-    <hyperlink ref="D23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId87"/>
-    <hyperlink ref="F23" display="testfirstlevel.md" r:id="rId88"/>
-    <hyperlink ref="G23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId89"/>
-    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId90"/>
-    <hyperlink ref="D24" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf" r:id="rId91"/>
-    <hyperlink ref="F24" display="testfirstlevel2.md" r:id="rId92"/>
-    <hyperlink ref="G24" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf" r:id="rId93"/>
-    <hyperlink ref="A25" display="TOC1.yml" r:id="rId94"/>
-    <hyperlink ref="D25" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId95"/>
-    <hyperlink ref="F25" display="TOC1.yml" r:id="rId96"/>
-    <hyperlink ref="G25" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId97"/>
+    <hyperlink ref="A2" display="README.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="README.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="a1111.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf" r:id="rId7"/>
+    <hyperlink ref="F3" display="a1111.md" r:id="rId8"/>
+    <hyperlink ref="G3" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="1111111111111111.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="1111111111111111.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="aaaaalllllladnasfhaskdf.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="aaaaalllllladnasfhaskdf.md" r:id="rId16"/>
+    <hyperlink ref="G5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="empty.yml" r:id="rId18"/>
+    <hyperlink ref="D6" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId19"/>
+    <hyperlink ref="F6" display="empty.yml" r:id="rId20"/>
+    <hyperlink ref="G6" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="generate-warning and error.md" r:id="rId22"/>
+    <hyperlink ref="D7" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId23"/>
+    <hyperlink ref="F7" display="generate-warning and error.md" r:id="rId24"/>
+    <hyperlink ref="G7" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId25"/>
+    <hyperlink ref="A8" display="github.png" r:id="rId26"/>
+    <hyperlink ref="D8" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId27"/>
+    <hyperlink ref="F8" display="github.png" r:id="rId28"/>
+    <hyperlink ref="G8" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId29"/>
+    <hyperlink ref="A9" display="sync.md" r:id="rId30"/>
+    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId31"/>
+    <hyperlink ref="F9" display="sync.md" r:id="rId32"/>
+    <hyperlink ref="G9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId34"/>
+    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId35"/>
+    <hyperlink ref="F10" display="test-scenario-1.md" r:id="rId36"/>
+    <hyperlink ref="G10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="test.yml" r:id="rId38"/>
+    <hyperlink ref="D11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId39"/>
+    <hyperlink ref="F11" display="test.yml" r:id="rId40"/>
+    <hyperlink ref="G11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId41"/>
+    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId42"/>
+    <hyperlink ref="D12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId43"/>
+    <hyperlink ref="F12" display="test1-aaa.md" r:id="rId44"/>
+    <hyperlink ref="G12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId46"/>
+    <hyperlink ref="D13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId47"/>
+    <hyperlink ref="F13" display="test1.md" r:id="rId48"/>
+    <hyperlink ref="G13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="testimage.md" r:id="rId50"/>
+    <hyperlink ref="D14" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId51"/>
+    <hyperlink ref="F14" display="testimage.md" r:id="rId52"/>
+    <hyperlink ref="G14" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="TOC.yml" r:id="rId54"/>
+    <hyperlink ref="D15" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId55"/>
+    <hyperlink ref="F15" display="TOC.yml" r:id="rId56"/>
+    <hyperlink ref="G15" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId57"/>
+    <hyperlink ref="A16" display="workerroletest.md" r:id="rId58"/>
+    <hyperlink ref="D16" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId59"/>
+    <hyperlink ref="F16" display="workerroletest.md" r:id="rId60"/>
+    <hyperlink ref="G16" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="Pong.md" r:id="rId62"/>
+    <hyperlink ref="D17" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId63"/>
+    <hyperlink ref="F17" display="Pong.md" r:id="rId64"/>
+    <hyperlink ref="G17" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId65"/>
+    <hyperlink ref="A18" display="test1.md" r:id="rId66"/>
+    <hyperlink ref="D18" display="test1.479666c0bebd89a903b3c049a83aee18e187ea2e.pl-pl.xlf" r:id="rId67"/>
+    <hyperlink ref="F18" display="test1.md" r:id="rId68"/>
+    <hyperlink ref="G18" display="test1.479666c0bebd89a903b3c049a83aee18e187ea2e.pl-pl.xlf" r:id="rId69"/>
+    <hyperlink ref="A19" display="test2.md" r:id="rId70"/>
+    <hyperlink ref="D19" display="test1.479666c0bebd89a903b3c049a83aee18e187ea2e.pl-pl.xlf" r:id="rId71"/>
+    <hyperlink ref="F19" display="test2.md" r:id="rId72"/>
+    <hyperlink ref="G19" display="test1.479666c0bebd89a903b3c049a83aee18e187ea2e.pl-pl.xlf" r:id="rId73"/>
+    <hyperlink ref="A20" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId74"/>
+    <hyperlink ref="D20" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId75"/>
+    <hyperlink ref="F20" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId76"/>
+    <hyperlink ref="G20" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId77"/>
+    <hyperlink ref="A21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId78"/>
+    <hyperlink ref="D21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId79"/>
+    <hyperlink ref="F21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId80"/>
+    <hyperlink ref="G21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId81"/>
+    <hyperlink ref="A22" display="keep-the-ui-thread-responsive.md" r:id="rId82"/>
+    <hyperlink ref="D22" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId83"/>
+    <hyperlink ref="F22" display="keep-the-ui-thread-responsive.md" r:id="rId84"/>
+    <hyperlink ref="G22" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId85"/>
+    <hyperlink ref="A23" display="1111117777ss.md" r:id="rId86"/>
+    <hyperlink ref="D23" display="1111117777ss.52737dbd6c620bebfe2cffe9f1dd7265e1de33f2.pl-pl.xlf" r:id="rId87"/>
+    <hyperlink ref="F23" display="1111117777ss.md" r:id="rId88"/>
+    <hyperlink ref="G23" display="1111117777ss.52737dbd6c620bebfe2cffe9f1dd7265e1de33f2.pl-pl.xlf" r:id="rId89"/>
+    <hyperlink ref="A24" display="test2.md" r:id="rId90"/>
+    <hyperlink ref="D24" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId91"/>
+    <hyperlink ref="F24" display="test2.md" r:id="rId92"/>
+    <hyperlink ref="G24" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId93"/>
+    <hyperlink ref="A25" display="testfirstlevel.md" r:id="rId94"/>
+    <hyperlink ref="D25" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId95"/>
+    <hyperlink ref="F25" display="testfirstlevel.md" r:id="rId96"/>
+    <hyperlink ref="G25" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId97"/>
+    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId98"/>
+    <hyperlink ref="D26" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf" r:id="rId99"/>
+    <hyperlink ref="F26" display="testfirstlevel2.md" r:id="rId100"/>
+    <hyperlink ref="G26" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf" r:id="rId101"/>
+    <hyperlink ref="A27" display="TOC1.yml" r:id="rId102"/>
+    <hyperlink ref="D27" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId103"/>
+    <hyperlink ref="F27" display="TOC1.yml" r:id="rId104"/>
+    <hyperlink ref="G27" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId105"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -13,26 +13,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
     <t>pl-pl</t>
   </si>
   <si>
+    <t>Latest Handoff Date</t>
+  </si>
+  <si>
     <t>README.md</t>
   </si>
   <si>
+    <t>.md</t>
+  </si>
+  <si>
     <t>Handed back: not in sync with en-US</t>
   </si>
   <si>
+    <t>2016-04-14 10:49:22</t>
+  </si>
+  <si>
     <t>a1111.md</t>
   </si>
   <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2016-04-14 03:11:29</t>
+  </si>
+  <si>
     <t>1111111111111111.md</t>
   </si>
   <si>
@@ -42,12 +57,18 @@
     <t>empty.yml</t>
   </si>
   <si>
+    <t>.yml</t>
+  </si>
+  <si>
     <t>generate-warning and error.md</t>
   </si>
   <si>
     <t>github.png</t>
   </si>
   <si>
+    <t>.png</t>
+  </si>
+  <si>
     <t>sync.md</t>
   </si>
   <si>
@@ -60,6 +81,9 @@
     <t>test1-aaa.md</t>
   </si>
   <si>
+    <t>2016-04-14 03:27:11</t>
+  </si>
+  <si>
     <t>test1.md</t>
   </si>
   <si>
@@ -75,6 +99,12 @@
     <t>Pong.md</t>
   </si>
   <si>
+    <t>2016-04-26 11:09:38</t>
+  </si>
+  <si>
+    <t>2016-04-15 15:45:24</t>
+  </si>
+  <si>
     <t>test2.md</t>
   </si>
   <si>
@@ -96,6 +126,9 @@
     <t>testfirstlevel2.md</t>
   </si>
   <si>
+    <t>2016-04-14 08:29:38</t>
+  </si>
+  <si>
     <t>TOC1.yml</t>
   </si>
   <si>
@@ -126,7 +159,7 @@
     <t>Reference Tokens</t>
   </si>
   <si>
-    <t>Handoff Reason</t>
+    <t>To be localized</t>
   </si>
   <si>
     <t>Dependency From</t>
@@ -135,27 +168,21 @@
     <t>Error Detail</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf</t>
   </si>
   <si>
-    <t>2016-04-14 10:49:22</t>
-  </si>
-  <si>
     <t>2016-04-15 06:37:51</t>
   </si>
   <si>
-    <t>Include</t>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
   </si>
   <si>
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
   </si>
   <si>
-    <t>2016-04-14 03:11:29</t>
-  </si>
-  <si>
     <t>2016-04-14 04:17:28</t>
   </si>
   <si>
@@ -165,26 +192,19 @@
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
   </si>
   <si>
-    <t>.yml</t>
-  </si>
-  <si>
     <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf</t>
   </si>
   <si>
     <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf</t>
   </si>
   <si>
-    <t>.png</t>
-  </si>
-  <si>
     <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
   </si>
   <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>e2e\testimage.md,
-e2e\move\testimage.md</t>
+    <t>True(Dependency)</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md,e2e\move\testimage.md</t>
   </si>
   <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf</t>
@@ -199,9 +219,6 @@
     <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf</t>
   </si>
   <si>
-    <t>2016-04-14 03:27:11</t>
-  </si>
-  <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
   </si>
   <si>
@@ -217,15 +234,12 @@
     <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf</t>
   </si>
   <si>
-    <t>2016-04-15 06:08:32</t>
+    <t>2016-04-26 11:20:59</t>
   </si>
   <si>
     <t>test1.479666c0bebd89a903b3c049a83aee18e187ea2e.pl-pl.xlf</t>
   </si>
   <si>
-    <t>2016-04-15 15:45:24</t>
-  </si>
-  <si>
     <t>2016-04-15 15:54:51</t>
   </si>
   <si>
@@ -248,9 +262,6 @@
   </si>
   <si>
     <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-14 08:29:38</t>
   </si>
   <si>
     <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf</t>
@@ -322,7 +333,7 @@
     <tableColumn id="7" name="Correspond Handback File"/>
     <tableColumn id="8" name="Correspond Handback DateTime"/>
     <tableColumn id="9" name="Reference Tokens"/>
-    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="10" name="To be localized"/>
     <tableColumn id="11" name="Dependency From"/>
     <tableColumn id="12" name="Error Detail"/>
   </tableColumns>
@@ -331,11 +342,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B27" headerRowCount="1">
-  <autoFilter ref="A1:B27"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D27" headerRowCount="1">
+  <autoFilter ref="A1:D27"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="pl-pl"/>
+    <tableColumn id="2" name="Extension"/>
+    <tableColumn id="3" name="pl-pl"/>
+    <tableColumn id="4" name="Latest Handoff Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -343,14 +356,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="12.1930160522461" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="4" max="4" width="21.2031533377511" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -360,213 +375,375 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -613,921 +790,1100 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="30.1631600516183" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="32.0967516217913" customWidth="1"/>
+    <col min="9" max="9" width="19.298205784389" customWidth="1"/>
+    <col min="10" max="10" width="17.7080830165318" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>25</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>26</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>9</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>76</v>
+        <v>35</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="README.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="README.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="a1111.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf" r:id="rId7"/>
-    <hyperlink ref="F3" display="a1111.md" r:id="rId8"/>
-    <hyperlink ref="G3" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="1111111111111111.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId11"/>
-    <hyperlink ref="F4" display="1111111111111111.md" r:id="rId12"/>
-    <hyperlink ref="G4" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="aaaaalllllladnasfhaskdf.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId15"/>
-    <hyperlink ref="F5" display="aaaaalllllladnasfhaskdf.md" r:id="rId16"/>
-    <hyperlink ref="G5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="empty.yml" r:id="rId18"/>
-    <hyperlink ref="D6" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId19"/>
-    <hyperlink ref="F6" display="empty.yml" r:id="rId20"/>
-    <hyperlink ref="G6" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId21"/>
-    <hyperlink ref="A7" display="generate-warning and error.md" r:id="rId22"/>
-    <hyperlink ref="D7" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId23"/>
-    <hyperlink ref="F7" display="generate-warning and error.md" r:id="rId24"/>
-    <hyperlink ref="G7" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="github.png" r:id="rId26"/>
-    <hyperlink ref="D8" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId27"/>
-    <hyperlink ref="F8" display="github.png" r:id="rId28"/>
-    <hyperlink ref="G8" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId29"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId30"/>
-    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId31"/>
-    <hyperlink ref="F9" display="sync.md" r:id="rId32"/>
-    <hyperlink ref="G9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId34"/>
-    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId35"/>
-    <hyperlink ref="F10" display="test-scenario-1.md" r:id="rId36"/>
-    <hyperlink ref="G10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="test.yml" r:id="rId38"/>
-    <hyperlink ref="D11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId39"/>
-    <hyperlink ref="F11" display="test.yml" r:id="rId40"/>
-    <hyperlink ref="G11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId42"/>
-    <hyperlink ref="D12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId43"/>
-    <hyperlink ref="F12" display="test1-aaa.md" r:id="rId44"/>
-    <hyperlink ref="G12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId46"/>
-    <hyperlink ref="D13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId47"/>
-    <hyperlink ref="F13" display="test1.md" r:id="rId48"/>
-    <hyperlink ref="G13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="testimage.md" r:id="rId50"/>
-    <hyperlink ref="D14" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId51"/>
-    <hyperlink ref="F14" display="testimage.md" r:id="rId52"/>
-    <hyperlink ref="G14" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId53"/>
-    <hyperlink ref="A15" display="TOC.yml" r:id="rId54"/>
-    <hyperlink ref="D15" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId55"/>
-    <hyperlink ref="F15" display="TOC.yml" r:id="rId56"/>
-    <hyperlink ref="G15" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId57"/>
-    <hyperlink ref="A16" display="workerroletest.md" r:id="rId58"/>
-    <hyperlink ref="D16" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId59"/>
-    <hyperlink ref="F16" display="workerroletest.md" r:id="rId60"/>
-    <hyperlink ref="G16" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId61"/>
-    <hyperlink ref="A17" display="Pong.md" r:id="rId62"/>
-    <hyperlink ref="D17" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId63"/>
-    <hyperlink ref="F17" display="Pong.md" r:id="rId64"/>
-    <hyperlink ref="G17" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId65"/>
-    <hyperlink ref="A18" display="test1.md" r:id="rId66"/>
-    <hyperlink ref="D18" display="test1.479666c0bebd89a903b3c049a83aee18e187ea2e.pl-pl.xlf" r:id="rId67"/>
-    <hyperlink ref="F18" display="test1.md" r:id="rId68"/>
-    <hyperlink ref="G18" display="test1.479666c0bebd89a903b3c049a83aee18e187ea2e.pl-pl.xlf" r:id="rId69"/>
-    <hyperlink ref="A19" display="test2.md" r:id="rId70"/>
-    <hyperlink ref="D19" display="test1.479666c0bebd89a903b3c049a83aee18e187ea2e.pl-pl.xlf" r:id="rId71"/>
-    <hyperlink ref="F19" display="test2.md" r:id="rId72"/>
-    <hyperlink ref="G19" display="test1.479666c0bebd89a903b3c049a83aee18e187ea2e.pl-pl.xlf" r:id="rId73"/>
-    <hyperlink ref="A20" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId74"/>
-    <hyperlink ref="D20" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId75"/>
-    <hyperlink ref="F20" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId76"/>
-    <hyperlink ref="G20" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId77"/>
-    <hyperlink ref="A21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId78"/>
-    <hyperlink ref="D21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId79"/>
-    <hyperlink ref="F21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId80"/>
-    <hyperlink ref="G21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId81"/>
-    <hyperlink ref="A22" display="keep-the-ui-thread-responsive.md" r:id="rId82"/>
-    <hyperlink ref="D22" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId83"/>
-    <hyperlink ref="F22" display="keep-the-ui-thread-responsive.md" r:id="rId84"/>
-    <hyperlink ref="G22" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId85"/>
-    <hyperlink ref="A23" display="1111117777ss.md" r:id="rId86"/>
-    <hyperlink ref="D23" display="1111117777ss.52737dbd6c620bebfe2cffe9f1dd7265e1de33f2.pl-pl.xlf" r:id="rId87"/>
-    <hyperlink ref="F23" display="1111117777ss.md" r:id="rId88"/>
-    <hyperlink ref="G23" display="1111117777ss.52737dbd6c620bebfe2cffe9f1dd7265e1de33f2.pl-pl.xlf" r:id="rId89"/>
-    <hyperlink ref="A24" display="test2.md" r:id="rId90"/>
-    <hyperlink ref="D24" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId91"/>
-    <hyperlink ref="F24" display="test2.md" r:id="rId92"/>
-    <hyperlink ref="G24" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId93"/>
-    <hyperlink ref="A25" display="testfirstlevel.md" r:id="rId94"/>
-    <hyperlink ref="D25" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId95"/>
-    <hyperlink ref="F25" display="testfirstlevel.md" r:id="rId96"/>
-    <hyperlink ref="G25" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId97"/>
-    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId98"/>
-    <hyperlink ref="D26" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf" r:id="rId99"/>
-    <hyperlink ref="F26" display="testfirstlevel2.md" r:id="rId100"/>
-    <hyperlink ref="G26" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf" r:id="rId101"/>
-    <hyperlink ref="A27" display="TOC1.yml" r:id="rId102"/>
-    <hyperlink ref="D27" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId103"/>
-    <hyperlink ref="F27" display="TOC1.yml" r:id="rId104"/>
-    <hyperlink ref="G27" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId105"/>
+    <hyperlink ref="F2" display="README.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a1111.md" r:id="rId4"/>
+    <hyperlink ref="F3" display="a1111.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="1111111111111111.md" r:id="rId6"/>
+    <hyperlink ref="F4" display="1111111111111111.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="aaaaalllllladnasfhaskdf.md" r:id="rId8"/>
+    <hyperlink ref="F5" display="aaaaalllllladnasfhaskdf.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="empty.yml" r:id="rId10"/>
+    <hyperlink ref="F6" display="empty.yml" r:id="rId11"/>
+    <hyperlink ref="A7" display="generate-warning and error.md" r:id="rId12"/>
+    <hyperlink ref="F7" display="generate-warning and error.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="github.png" r:id="rId14"/>
+    <hyperlink ref="F8" display="github.png" r:id="rId15"/>
+    <hyperlink ref="A9" display="sync.md" r:id="rId16"/>
+    <hyperlink ref="F9" display="sync.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId18"/>
+    <hyperlink ref="F10" display="test-scenario-1.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="test.yml" r:id="rId20"/>
+    <hyperlink ref="F11" display="test.yml" r:id="rId21"/>
+    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId22"/>
+    <hyperlink ref="F12" display="test1-aaa.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId24"/>
+    <hyperlink ref="F13" display="test1.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="testimage.md" r:id="rId26"/>
+    <hyperlink ref="F14" display="testimage.md" r:id="rId27"/>
+    <hyperlink ref="A15" display="TOC.yml" r:id="rId28"/>
+    <hyperlink ref="F15" display="TOC.yml" r:id="rId29"/>
+    <hyperlink ref="A16" display="workerroletest.md" r:id="rId30"/>
+    <hyperlink ref="F16" display="workerroletest.md" r:id="rId31"/>
+    <hyperlink ref="A17" display="Pong.md" r:id="rId32"/>
+    <hyperlink ref="F17" display="Pong.md" r:id="rId33"/>
+    <hyperlink ref="A18" display="test1.md" r:id="rId34"/>
+    <hyperlink ref="F18" display="test1.md" r:id="rId35"/>
+    <hyperlink ref="A19" display="test2.md" r:id="rId36"/>
+    <hyperlink ref="F19" display="test2.md" r:id="rId37"/>
+    <hyperlink ref="A20" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId38"/>
+    <hyperlink ref="F20" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId39"/>
+    <hyperlink ref="A21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId40"/>
+    <hyperlink ref="F21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId41"/>
+    <hyperlink ref="A22" display="keep-the-ui-thread-responsive.md" r:id="rId42"/>
+    <hyperlink ref="F22" display="keep-the-ui-thread-responsive.md" r:id="rId43"/>
+    <hyperlink ref="A23" display="1111117777ss.md" r:id="rId44"/>
+    <hyperlink ref="F23" display="1111117777ss.md" r:id="rId45"/>
+    <hyperlink ref="A24" display="test2.md" r:id="rId46"/>
+    <hyperlink ref="F24" display="test2.md" r:id="rId47"/>
+    <hyperlink ref="A25" display="testfirstlevel.md" r:id="rId48"/>
+    <hyperlink ref="F25" display="testfirstlevel.md" r:id="rId49"/>
+    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId50"/>
+    <hyperlink ref="F26" display="testfirstlevel2.md" r:id="rId51"/>
+    <hyperlink ref="A27" display="TOC1.yml" r:id="rId52"/>
+    <hyperlink ref="F27" display="TOC1.yml" r:id="rId53"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>File Name</t>
   </si>
@@ -27,27 +27,45 @@
     <t>Latest Handoff Date</t>
   </si>
   <si>
+    <t>test.yml</t>
+  </si>
+  <si>
+    <t>.yml</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-04-14 03:11:29</t>
+  </si>
+  <si>
+    <t>TOC.yml</t>
+  </si>
+  <si>
+    <t>Pong.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>2016-04-26 11:09:38</t>
+  </si>
+  <si>
     <t>README.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-04-14 10:49:22</t>
   </si>
   <si>
+    <t>TOC1.yml</t>
+  </si>
+  <si>
     <t>a1111.md</t>
   </si>
   <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-04-14 03:11:29</t>
-  </si>
-  <si>
     <t>1111111111111111.md</t>
   </si>
   <si>
@@ -57,9 +75,6 @@
     <t>empty.yml</t>
   </si>
   <si>
-    <t>.yml</t>
-  </si>
-  <si>
     <t>generate-warning and error.md</t>
   </si>
   <si>
@@ -75,9 +90,6 @@
     <t>test-scenario-1.md</t>
   </si>
   <si>
-    <t>test.yml</t>
-  </si>
-  <si>
     <t>test1-aaa.md</t>
   </si>
   <si>
@@ -90,18 +102,9 @@
     <t>testimage.md</t>
   </si>
   <si>
-    <t>TOC.yml</t>
-  </si>
-  <si>
     <t>workerroletest.md</t>
   </si>
   <si>
-    <t>Pong.md</t>
-  </si>
-  <si>
-    <t>2016-04-26 11:09:38</t>
-  </si>
-  <si>
     <t>2016-04-15 15:45:24</t>
   </si>
   <si>
@@ -129,9 +132,6 @@
     <t>2016-04-14 08:29:38</t>
   </si>
   <si>
-    <t>TOC1.yml</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -141,6 +141,12 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
     <t>Correspond Handoff File</t>
   </si>
   <si>
@@ -165,27 +171,57 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
     <t>Error Detail</t>
   </si>
   <si>
+    <t>e2e\move</t>
+  </si>
+  <si>
+    <t>ht-test</t>
+  </si>
+  <si>
+    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-14 04:17:28</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-26 11:20:59</t>
+  </si>
+  <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf</t>
   </si>
   <si>
     <t>2016-04-15 06:37:51</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>True</t>
+    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf</t>
   </si>
   <si>
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
   </si>
   <si>
-    <t>2016-04-14 04:17:28</t>
-  </si>
-  <si>
     <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
   </si>
   <si>
@@ -213,9 +249,6 @@
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf</t>
   </si>
   <si>
-    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf</t>
-  </si>
-  <si>
     <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf</t>
   </si>
   <si>
@@ -225,16 +258,10 @@
     <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf</t>
   </si>
   <si>
-    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf</t>
-  </si>
-  <si>
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf</t>
   </si>
   <si>
-    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-26 11:20:59</t>
+    <t>e2e\same</t>
   </si>
   <si>
     <t>test1.479666c0bebd89a903b3c049a83aee18e187ea2e.pl-pl.xlf</t>
@@ -243,6 +270,9 @@
     <t>2016-04-15 15:54:51</t>
   </si>
   <si>
+    <t>e2e\test1</t>
+  </si>
+  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf</t>
   </si>
   <si>
@@ -252,6 +282,9 @@
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf</t>
   </si>
   <si>
+    <t>e2e\test2</t>
+  </si>
+  <si>
     <t>1111117777ss.52737dbd6c620bebfe2cffe9f1dd7265e1de33f2.pl-pl.xlf</t>
   </si>
   <si>
@@ -262,9 +295,6 @@
   </si>
   <si>
     <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf</t>
   </si>
 </sst>
 </file>
@@ -321,21 +351,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pl-pl" displayName="pl_pl" ref="A1:L27" headerRowCount="1">
-  <autoFilter ref="A1:L27"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pl-pl" displayName="pl_pl" ref="A1:O27" headerRowCount="1">
+  <autoFilter ref="A1:O27"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
     <tableColumn id="3" name="Status"/>
-    <tableColumn id="4" name="Correspond Handoff File"/>
-    <tableColumn id="5" name="Correspond Handoff Datetime"/>
-    <tableColumn id="6" name="Target File"/>
-    <tableColumn id="7" name="Correspond Handback File"/>
-    <tableColumn id="8" name="Correspond Handback DateTime"/>
-    <tableColumn id="9" name="Reference Tokens"/>
-    <tableColumn id="10" name="To be localized"/>
-    <tableColumn id="11" name="Dependency From"/>
-    <tableColumn id="12" name="Error Detail"/>
+    <tableColumn id="4" name="Source Path"/>
+    <tableColumn id="5" name="Priority"/>
+    <tableColumn id="6" name="Correspond Handoff File"/>
+    <tableColumn id="7" name="Correspond Handoff Datetime"/>
+    <tableColumn id="8" name="Target File"/>
+    <tableColumn id="9" name="Correspond Handback File"/>
+    <tableColumn id="10" name="Correspond Handback DateTime"/>
+    <tableColumn id="11" name="Reference Tokens"/>
+    <tableColumn id="12" name="To be localized"/>
+    <tableColumn id="13" name="Dependency From"/>
+    <tableColumn id="14" name="Has metadata"/>
+    <tableColumn id="15" name="Error Detail"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -404,24 +437,24 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -429,27 +462,27 @@
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -457,27 +490,27 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -485,13 +518,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -502,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -513,13 +546,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -527,13 +560,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -541,13 +574,13 @@
         <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -555,13 +588,13 @@
         <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -569,69 +602,69 @@
         <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -639,13 +672,13 @@
         <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -653,13 +686,13 @@
         <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -667,13 +700,13 @@
         <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -681,41 +714,41 @@
         <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -723,57 +756,57 @@
         <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="README.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="a1111.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="1111111111111111.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="aaaaalllllladnasfhaskdf.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="empty.yml" r:id="rId6"/>
-    <hyperlink ref="A7" display="generate-warning and error.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="github.png" r:id="rId8"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="test.yml" r:id="rId11"/>
-    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="testimage.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="TOC.yml" r:id="rId15"/>
-    <hyperlink ref="A16" display="workerroletest.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="Pong.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="test1.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="test2.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="keep-the-ui-thread-responsive.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="1111117777ss.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="test2.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="testfirstlevel.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="TOC1.yml" r:id="rId27"/>
+    <hyperlink ref="A2" display="test.yml" r:id="rId2"/>
+    <hyperlink ref="A3" display="TOC.yml" r:id="rId3"/>
+    <hyperlink ref="A4" display="Pong.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="README.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="TOC1.yml" r:id="rId6"/>
+    <hyperlink ref="A7" display="a1111.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="1111111111111111.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="aaaaalllllladnasfhaskdf.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="empty.yml" r:id="rId10"/>
+    <hyperlink ref="A11" display="generate-warning and error.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="github.png" r:id="rId12"/>
+    <hyperlink ref="A13" display="sync.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="test-scenario-1.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="test1-aaa.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="test1.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="testimage.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="workerroletest.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="test1.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="test2.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="keep-the-ui-thread-responsive.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="1111117777ss.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="test2.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="testfirstlevel.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="testfirstlevel2.md" r:id="rId27"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -784,7 +817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -793,15 +826,18 @@
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
     <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="30.1631600516183" customWidth="1"/>
+    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
+    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="32.0967516217913" customWidth="1"/>
-    <col min="9" max="9" width="19.298205784389" customWidth="1"/>
-    <col min="10" max="10" width="17.7080830165318" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="13.7470528738839" customWidth="1"/>
+    <col min="7" max="7" width="30.1631600516183" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="32.0967516217913" customWidth="1"/>
+    <col min="11" max="11" width="19.298205784389" customWidth="1"/>
+    <col min="12" max="12" width="17.7080830165318" customWidth="1"/>
+    <col min="13" max="13" width="40" customWidth="1"/>
+    <col min="14" max="14" width="15.8504747663225" customWidth="1"/>
+    <col min="15" max="15" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -841,6 +877,15 @@
       <c r="L1" s="0" t="s">
         <v>50</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -853,31 +898,40 @@
         <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -888,72 +942,90 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -961,75 +1033,93 @@
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1037,75 +1127,93 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -1113,37 +1221,46 @@
         <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -1154,34 +1271,43 @@
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>54</v>
+        <v>71</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1189,37 +1315,46 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -1227,37 +1362,46 @@
         <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1265,37 +1409,46 @@
         <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I13" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>54</v>
+        <v>76</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1303,37 +1456,46 @@
         <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -1341,189 +1503,234 @@
         <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I15" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>54</v>
+        <v>79</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="I17" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="I18" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>54</v>
+        <v>81</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>75</v>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -1531,37 +1738,46 @@
         <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -1569,37 +1785,46 @@
         <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -1607,37 +1832,46 @@
         <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I22" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23">
@@ -1645,113 +1879,140 @@
         <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="I23" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>54</v>
+        <v>88</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>56</v>
+      <c r="H24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>54</v>
+        <v>90</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>56</v>
+        <v>89</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>54</v>
+        <v>91</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26">
@@ -1759,131 +2020,149 @@
         <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="I26" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>54</v>
+        <v>92</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>56</v>
+      <c r="H27" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>54</v>
+        <v>93</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="README.md" r:id="rId2"/>
-    <hyperlink ref="F2" display="README.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="a1111.md" r:id="rId4"/>
-    <hyperlink ref="F3" display="a1111.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="1111111111111111.md" r:id="rId6"/>
-    <hyperlink ref="F4" display="1111111111111111.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="aaaaalllllladnasfhaskdf.md" r:id="rId8"/>
-    <hyperlink ref="F5" display="aaaaalllllladnasfhaskdf.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="empty.yml" r:id="rId10"/>
-    <hyperlink ref="F6" display="empty.yml" r:id="rId11"/>
-    <hyperlink ref="A7" display="generate-warning and error.md" r:id="rId12"/>
-    <hyperlink ref="F7" display="generate-warning and error.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="github.png" r:id="rId14"/>
-    <hyperlink ref="F8" display="github.png" r:id="rId15"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId16"/>
-    <hyperlink ref="F9" display="sync.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId18"/>
-    <hyperlink ref="F10" display="test-scenario-1.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="test.yml" r:id="rId20"/>
-    <hyperlink ref="F11" display="test.yml" r:id="rId21"/>
-    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId22"/>
-    <hyperlink ref="F12" display="test1-aaa.md" r:id="rId23"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId24"/>
-    <hyperlink ref="F13" display="test1.md" r:id="rId25"/>
-    <hyperlink ref="A14" display="testimage.md" r:id="rId26"/>
-    <hyperlink ref="F14" display="testimage.md" r:id="rId27"/>
-    <hyperlink ref="A15" display="TOC.yml" r:id="rId28"/>
-    <hyperlink ref="F15" display="TOC.yml" r:id="rId29"/>
-    <hyperlink ref="A16" display="workerroletest.md" r:id="rId30"/>
-    <hyperlink ref="F16" display="workerroletest.md" r:id="rId31"/>
-    <hyperlink ref="A17" display="Pong.md" r:id="rId32"/>
-    <hyperlink ref="F17" display="Pong.md" r:id="rId33"/>
-    <hyperlink ref="A18" display="test1.md" r:id="rId34"/>
-    <hyperlink ref="F18" display="test1.md" r:id="rId35"/>
-    <hyperlink ref="A19" display="test2.md" r:id="rId36"/>
-    <hyperlink ref="F19" display="test2.md" r:id="rId37"/>
-    <hyperlink ref="A20" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId38"/>
-    <hyperlink ref="F20" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId39"/>
-    <hyperlink ref="A21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId40"/>
-    <hyperlink ref="F21" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId41"/>
-    <hyperlink ref="A22" display="keep-the-ui-thread-responsive.md" r:id="rId42"/>
-    <hyperlink ref="F22" display="keep-the-ui-thread-responsive.md" r:id="rId43"/>
-    <hyperlink ref="A23" display="1111117777ss.md" r:id="rId44"/>
-    <hyperlink ref="F23" display="1111117777ss.md" r:id="rId45"/>
-    <hyperlink ref="A24" display="test2.md" r:id="rId46"/>
-    <hyperlink ref="F24" display="test2.md" r:id="rId47"/>
-    <hyperlink ref="A25" display="testfirstlevel.md" r:id="rId48"/>
-    <hyperlink ref="F25" display="testfirstlevel.md" r:id="rId49"/>
-    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId50"/>
-    <hyperlink ref="F26" display="testfirstlevel2.md" r:id="rId51"/>
-    <hyperlink ref="A27" display="TOC1.yml" r:id="rId52"/>
-    <hyperlink ref="F27" display="TOC1.yml" r:id="rId53"/>
+    <hyperlink ref="A2" display="test.yml" r:id="rId2"/>
+    <hyperlink ref="H2" display="test.yml" r:id="rId3"/>
+    <hyperlink ref="A3" display="TOC.yml" r:id="rId4"/>
+    <hyperlink ref="H3" display="TOC.yml" r:id="rId5"/>
+    <hyperlink ref="A4" display="Pong.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="Pong.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="README.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="README.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="TOC1.yml" r:id="rId10"/>
+    <hyperlink ref="H6" display="TOC1.yml" r:id="rId11"/>
+    <hyperlink ref="A7" display="a1111.md" r:id="rId12"/>
+    <hyperlink ref="H7" display="a1111.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="1111111111111111.md" r:id="rId14"/>
+    <hyperlink ref="H8" display="1111111111111111.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="aaaaalllllladnasfhaskdf.md" r:id="rId16"/>
+    <hyperlink ref="H9" display="aaaaalllllladnasfhaskdf.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="empty.yml" r:id="rId18"/>
+    <hyperlink ref="H10" display="empty.yml" r:id="rId19"/>
+    <hyperlink ref="A11" display="generate-warning and error.md" r:id="rId20"/>
+    <hyperlink ref="H11" display="generate-warning and error.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="github.png" r:id="rId22"/>
+    <hyperlink ref="H12" display="github.png" r:id="rId23"/>
+    <hyperlink ref="A13" display="sync.md" r:id="rId24"/>
+    <hyperlink ref="H13" display="sync.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="test-scenario-1.md" r:id="rId26"/>
+    <hyperlink ref="H14" display="test-scenario-1.md" r:id="rId27"/>
+    <hyperlink ref="A15" display="test1-aaa.md" r:id="rId28"/>
+    <hyperlink ref="H15" display="test1-aaa.md" r:id="rId29"/>
+    <hyperlink ref="A16" display="test1.md" r:id="rId30"/>
+    <hyperlink ref="H16" display="test1.md" r:id="rId31"/>
+    <hyperlink ref="A17" display="testimage.md" r:id="rId32"/>
+    <hyperlink ref="H17" display="testimage.md" r:id="rId33"/>
+    <hyperlink ref="A18" display="workerroletest.md" r:id="rId34"/>
+    <hyperlink ref="H18" display="workerroletest.md" r:id="rId35"/>
+    <hyperlink ref="A19" display="test1.md" r:id="rId36"/>
+    <hyperlink ref="H19" display="test1.md" r:id="rId37"/>
+    <hyperlink ref="A20" display="test2.md" r:id="rId38"/>
+    <hyperlink ref="H20" display="test2.md" r:id="rId39"/>
+    <hyperlink ref="A21" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId40"/>
+    <hyperlink ref="H21" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId41"/>
+    <hyperlink ref="A22" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId42"/>
+    <hyperlink ref="H22" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId43"/>
+    <hyperlink ref="A23" display="keep-the-ui-thread-responsive.md" r:id="rId44"/>
+    <hyperlink ref="H23" display="keep-the-ui-thread-responsive.md" r:id="rId45"/>
+    <hyperlink ref="A24" display="1111117777ss.md" r:id="rId46"/>
+    <hyperlink ref="H24" display="1111117777ss.md" r:id="rId47"/>
+    <hyperlink ref="A25" display="test2.md" r:id="rId48"/>
+    <hyperlink ref="H25" display="test2.md" r:id="rId49"/>
+    <hyperlink ref="A26" display="testfirstlevel.md" r:id="rId50"/>
+    <hyperlink ref="H26" display="testfirstlevel.md" r:id="rId51"/>
+    <hyperlink ref="A27" display="testfirstlevel2.md" r:id="rId52"/>
+    <hyperlink ref="H27" display="testfirstlevel2.md" r:id="rId53"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -13,14 +13,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>Path And Name</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
+    <t>Publish URL</t>
+  </si>
+  <si>
     <t>pl-pl</t>
   </si>
   <si>
@@ -30,6 +36,9 @@
     <t>test.yml</t>
   </si>
   <si>
+    <t>e2e\move\test.yml</t>
+  </si>
+  <si>
     <t>.yml</t>
   </si>
   <si>
@@ -42,9 +51,15 @@
     <t>TOC.yml</t>
   </si>
   <si>
+    <t>e2e\move\TOC.yml</t>
+  </si>
+  <si>
     <t>Pong.md</t>
   </si>
   <si>
+    <t>e2e\Pong.md</t>
+  </si>
+  <si>
     <t>.md</t>
   </si>
   <si>
@@ -69,60 +84,114 @@
     <t>1111111111111111.md</t>
   </si>
   <si>
+    <t>e2e\1111111111111111.md</t>
+  </si>
+  <si>
     <t>aaaaalllllladnasfhaskdf.md</t>
   </si>
   <si>
+    <t>e2e\aaaaalllllladnasfhaskdf.md</t>
+  </si>
+  <si>
     <t>empty.yml</t>
   </si>
   <si>
+    <t>e2e\empty.yml</t>
+  </si>
+  <si>
     <t>generate-warning and error.md</t>
   </si>
   <si>
+    <t>e2e\generate-warning and error.md</t>
+  </si>
+  <si>
     <t>github.png</t>
   </si>
   <si>
+    <t>e2e\github.png</t>
+  </si>
+  <si>
     <t>.png</t>
   </si>
   <si>
     <t>sync.md</t>
   </si>
   <si>
+    <t>e2e\move\sync.md</t>
+  </si>
+  <si>
     <t>test-scenario-1.md</t>
   </si>
   <si>
+    <t>e2e\move\test-scenario-1.md</t>
+  </si>
+  <si>
     <t>test1-aaa.md</t>
   </si>
   <si>
+    <t>e2e\move\test1-aaa.md</t>
+  </si>
+  <si>
     <t>2016-04-14 03:27:11</t>
   </si>
   <si>
     <t>test1.md</t>
   </si>
   <si>
+    <t>e2e\move\test1.md</t>
+  </si>
+  <si>
     <t>testimage.md</t>
   </si>
   <si>
+    <t>e2e\move\testimage.md</t>
+  </si>
+  <si>
     <t>workerroletest.md</t>
   </si>
   <si>
+    <t>e2e\move\workerroletest.md</t>
+  </si>
+  <si>
+    <t>e2e\same\test1.md</t>
+  </si>
+  <si>
     <t>2016-04-15 15:45:24</t>
   </si>
   <si>
     <t>test2.md</t>
   </si>
   <si>
+    <t>e2e\same\test2.md</t>
+  </si>
+  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
   </si>
   <si>
+    <t>e2e\test1\Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
+  </si>
+  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
   </si>
   <si>
+    <t>e2e\test1\Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
+  </si>
+  <si>
     <t>keep-the-ui-thread-responsive.md</t>
   </si>
   <si>
+    <t>e2e\test1\keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
     <t>1111117777ss.md</t>
   </si>
   <si>
+    <t>e2e\test2\1111117777ss.md</t>
+  </si>
+  <si>
+    <t>e2e\test2\test2.md</t>
+  </si>
+  <si>
     <t>testfirstlevel.md</t>
   </si>
   <si>
@@ -220,6 +289,9 @@
   </si>
   <si>
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-06-26 03:34:09</t>
   </si>
   <si>
     <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
@@ -375,13 +447,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D27" headerRowCount="1">
-  <autoFilter ref="A1:D27"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:F27" headerRowCount="1">
+  <autoFilter ref="A1:F27"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="Extension"/>
-    <tableColumn id="3" name="pl-pl"/>
-    <tableColumn id="4" name="Latest Handoff Date"/>
+    <tableColumn id="2" name="Path And Name"/>
+    <tableColumn id="3" name="Extension"/>
+    <tableColumn id="4" name="Publish URL"/>
+    <tableColumn id="5" name="pl-pl"/>
+    <tableColumn id="6" name="Latest Handoff Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -389,16 +463,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="12.1930160522461" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
-    <col min="4" max="4" width="21.2031533377511" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
+    <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="21.2031533377511" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -414,399 +490,483 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>10</v>
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>10</v>
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>10</v>
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>22</v>
+      <c r="A12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>10</v>
+      <c r="A13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>10</v>
+      <c r="A14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>10</v>
+      <c r="A15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>10</v>
+      <c r="A16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>10</v>
+      <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>10</v>
+      <c r="A18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>10</v>
+      <c r="A19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>10</v>
+      <c r="A20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>10</v>
+      <c r="A21" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>10</v>
+      <c r="A22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>10</v>
+      <c r="A23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>10</v>
+      <c r="A24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>10</v>
+      <c r="A25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>10</v>
+      <c r="A26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>10</v>
+      <c r="A27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test.yml" r:id="rId2"/>
-    <hyperlink ref="A3" display="TOC.yml" r:id="rId3"/>
-    <hyperlink ref="A4" display="Pong.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="README.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="TOC1.yml" r:id="rId6"/>
-    <hyperlink ref="A7" display="a1111.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="1111111111111111.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="aaaaalllllladnasfhaskdf.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="empty.yml" r:id="rId10"/>
-    <hyperlink ref="A11" display="generate-warning and error.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="github.png" r:id="rId12"/>
-    <hyperlink ref="A13" display="sync.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="test-scenario-1.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="test1-aaa.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="test1.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="testimage.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="workerroletest.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="test1.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="test2.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="keep-the-ui-thread-responsive.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="1111117777ss.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="test2.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="testfirstlevel.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="testfirstlevel2.md" r:id="rId27"/>
+    <hyperlink ref="B2" display="e2e\move\test.yml" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\move\TOC.yml" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\Pong.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="README.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="TOC1.yml" r:id="rId6"/>
+    <hyperlink ref="B7" display="a1111.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\1111111111111111.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\aaaaalllllladnasfhaskdf.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\empty.yml" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\generate-warning and error.md" r:id="rId11"/>
+    <hyperlink ref="B12" display="e2e\github.png" r:id="rId12"/>
+    <hyperlink ref="B13" display="e2e\move\sync.md" r:id="rId13"/>
+    <hyperlink ref="B14" display="e2e\move\test-scenario-1.md" r:id="rId14"/>
+    <hyperlink ref="B15" display="e2e\move\test1-aaa.md" r:id="rId15"/>
+    <hyperlink ref="B16" display="e2e\move\test1.md" r:id="rId16"/>
+    <hyperlink ref="B17" display="e2e\move\testimage.md" r:id="rId17"/>
+    <hyperlink ref="B18" display="e2e\move\workerroletest.md" r:id="rId18"/>
+    <hyperlink ref="B19" display="e2e\same\test1.md" r:id="rId19"/>
+    <hyperlink ref="B20" display="e2e\same\test2.md" r:id="rId20"/>
+    <hyperlink ref="B21" display="e2e\test1\Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId21"/>
+    <hyperlink ref="B22" display="e2e\test1\Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId22"/>
+    <hyperlink ref="B23" display="e2e\test1\keep-the-ui-thread-responsive.md" r:id="rId23"/>
+    <hyperlink ref="B24" display="e2e\test2\1111117777ss.md" r:id="rId24"/>
+    <hyperlink ref="B25" display="e2e\test2\test2.md" r:id="rId25"/>
+    <hyperlink ref="B26" display="testfirstlevel.md" r:id="rId26"/>
+    <hyperlink ref="B27" display="testfirstlevel2.md" r:id="rId27"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -842,1271 +1002,1271 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="K17" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>File Name</t>
   </si>
@@ -81,6 +81,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2016-06-26 03:37:39</t>
+  </si>
+  <si>
     <t>1111111111111111.md</t>
   </si>
   <si>
@@ -132,9 +135,6 @@
     <t>e2e\move\test1-aaa.md</t>
   </si>
   <si>
-    <t>2016-04-14 03:27:11</t>
-  </si>
-  <si>
     <t>test1.md</t>
   </si>
   <si>
@@ -156,9 +156,6 @@
     <t>e2e\same\test1.md</t>
   </si>
   <si>
-    <t>2016-04-15 15:45:24</t>
-  </si>
-  <si>
     <t>test2.md</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>testfirstlevel2.md</t>
   </si>
   <si>
-    <t>2016-04-14 08:29:38</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -291,12 +285,18 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
   </si>
   <si>
-    <t>2016-06-26 03:34:09</t>
+    <t>2016-06-26 03:54:13</t>
+  </si>
+  <si>
+    <t>1111111111111111.5d2d753009862ea9b42aec27c7b7c7d11544f986.pl-pl.xlf</t>
   </si>
   <si>
     <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
   </si>
   <si>
+    <t>aaaaalllllladnasfhaskdf.b712132d6bc9ac235759eabf0c713565d8caf4f5.pl-pl.xlf</t>
+  </si>
+  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
   </si>
   <si>
@@ -315,19 +315,37 @@
     <t>e2e\testimage.md,e2e\move\testimage.md</t>
   </si>
   <si>
+    <t>sync.44dca3b39987ac4b23775a64e99fefda5e04cd9a.pl-pl.xlf</t>
+  </si>
+  <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf</t>
   </si>
   <si>
+    <t>test-scenario-1.739f4fcaaf5f2b717808eb786e1fca559e71a38a.pl-pl.xlf</t>
+  </si>
+  <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf</t>
   </si>
   <si>
+    <t>test1-aaa.b411795040929dbbaf3f33c27a402c62b2fe36f6.pl-pl.xlf</t>
+  </si>
+  <si>
     <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf</t>
   </si>
   <si>
+    <t>test1.c9599a0c11b2b514a282fe034f5f19637133e96e.pl-pl.xlf</t>
+  </si>
+  <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
   </si>
   <si>
+    <t>testimage.cc8aa6daa73b9c3c601469290ea85d73a6be066f.pl-pl.xlf</t>
+  </si>
+  <si>
     <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.78f57a3d2c18a5cf64cdff8dfa96e56546fb8f0a.pl-pl.xlf</t>
   </si>
   <si>
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf</t>
@@ -596,15 +614,15 @@
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>15</v>
@@ -613,15 +631,15 @@
         <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>15</v>
@@ -630,15 +648,15 @@
         <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>8</v>
@@ -647,15 +665,15 @@
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>15</v>
@@ -664,18 +682,18 @@
         <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>21</v>
@@ -686,10 +704,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>15</v>
@@ -698,15 +716,15 @@
         <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>15</v>
@@ -715,15 +733,15 @@
         <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>15</v>
@@ -732,7 +750,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -749,7 +767,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -766,7 +784,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -783,7 +801,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -800,16 +818,16 @@
         <v>21</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C20" s="0" t="s">
         <v>15</v>
       </c>
@@ -817,16 +835,16 @@
         <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C21" s="0" t="s">
         <v>15</v>
       </c>
@@ -834,16 +852,16 @@
         <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C22" s="0" t="s">
         <v>15</v>
       </c>
@@ -851,16 +869,16 @@
         <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C23" s="0" t="s">
         <v>15</v>
       </c>
@@ -868,16 +886,16 @@
         <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C24" s="0" t="s">
         <v>15</v>
       </c>
@@ -885,15 +903,15 @@
         <v>21</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>15</v>
@@ -902,15 +920,15 @@
         <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>15</v>
@@ -919,15 +937,15 @@
         <v>21</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>15</v>
@@ -936,7 +954,7 @@
         <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1002,49 +1020,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -1058,13 +1076,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -1073,25 +1091,25 @@
         <v>6</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1123,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -1120,25 +1138,25 @@
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -1152,13 +1170,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>
@@ -1167,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -1199,13 +1217,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>18</v>
@@ -1214,25 +1232,25 @@
         <v>17</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -1246,13 +1264,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -1261,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1293,45 +1311,45 @@
         <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>15</v>
@@ -1340,45 +1358,45 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="K8" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>15</v>
@@ -1387,45 +1405,45 @@
         <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>94</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>8</v>
@@ -1434,45 +1452,45 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>95</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>95</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -1481,57 +1499,57 @@
         <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>96</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>96</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>97</v>
@@ -1540,16 +1558,16 @@
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>97</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>98</v>
@@ -1558,15 +1576,15 @@
         <v>99</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>15</v>
@@ -1575,45 +1593,45 @@
         <v>21</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>15</v>
@@ -1622,45 +1640,45 @@
         <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="K14" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>15</v>
@@ -1669,40 +1687,40 @@
         <v>21</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="K15" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -1716,40 +1734,40 @@
         <v>21</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1763,40 +1781,40 @@
         <v>21</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -1810,40 +1828,40 @@
         <v>21</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -1857,45 +1875,45 @@
         <v>21</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>15</v>
@@ -1904,45 +1922,45 @@
         <v>21</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>15</v>
@@ -1951,45 +1969,45 @@
         <v>21</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="K21" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>15</v>
@@ -1998,45 +2016,45 @@
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="K22" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>15</v>
@@ -2045,45 +2063,45 @@
         <v>21</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="K23" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>15</v>
@@ -2092,45 +2110,45 @@
         <v>21</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F24" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="K24" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>15</v>
@@ -2139,45 +2157,45 @@
         <v>21</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="K25" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>15</v>
@@ -2186,45 +2204,45 @@
         <v>21</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="K26" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>15</v>
@@ -2233,40 +2251,40 @@
         <v>21</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -285,7 +285,7 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
   </si>
   <si>
-    <t>2016-06-26 03:54:13</t>
+    <t>2016-06-26 04:04:36</t>
   </si>
   <si>
     <t>1111111111111111.5d2d753009862ea9b42aec27c7b7c7d11544f986.pl-pl.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -285,7 +285,7 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
   </si>
   <si>
-    <t>2016-06-26 04:04:36</t>
+    <t>2016-06-26 04:13:59</t>
   </si>
   <si>
     <t>1111111111111111.5d2d753009862ea9b42aec27c7b7c7d11544f986.pl-pl.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -285,7 +285,7 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
   </si>
   <si>
-    <t>2016-06-26 04:13:59</t>
+    <t>2016-06-26 04:24:23</t>
   </si>
   <si>
     <t>1111111111111111.5d2d753009862ea9b42aec27c7b7c7d11544f986.pl-pl.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -285,7 +285,7 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
   </si>
   <si>
-    <t>2016-06-26 04:24:23</t>
+    <t>2016-06-26 04:34:45</t>
   </si>
   <si>
     <t>1111111111111111.5d2d753009862ea9b42aec27c7b7c7d11544f986.pl-pl.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/handback-status.xlsx
@@ -285,7 +285,7 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
   </si>
   <si>
-    <t>2016-06-26 04:34:45</t>
+    <t>2016-06-26 04:44:08</t>
   </si>
   <si>
     <t>1111111111111111.5d2d753009862ea9b42aec27c7b7c7d11544f986.pl-pl.xlf</t>
